--- a/ExcelLab.xlsx
+++ b/ExcelLab.xlsx
@@ -125,8 +125,353 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Average salaries of the jobs that are in most demand in Canada</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$4</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$5:$B$12</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$5:$C$12</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="1467516865"/>
+        <c:axId val="1700078498"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1467516865"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t/>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:spPr/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1700078498"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1700078498"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="CCCCCC">
+                  <a:alpha val="0"/>
+                </a:srgbClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t/>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1467516865"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0">
+            <a:defRPr b="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5715000" cy="3533775"/>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="1" name="Chart 1" title="Chart"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>923925</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3133725" cy="1828800"/>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Shape 3"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="480325" y="921450"/>
+          <a:ext cx="3117300" cy="1813500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="4A86E8"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr anchorCtr="0" anchor="t" bIns="91425" lIns="91425" spcFirstLastPara="1" rIns="91425" wrap="square" tIns="91425">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:latin typeface="Times New Roman"/>
+              <a:ea typeface="Times New Roman"/>
+              <a:cs typeface="Times New Roman"/>
+              <a:sym typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>The data represented in this chart refers to the average salaries of the jobs that are the highest in demand in the IT field in Canada. Out of these jobs, “Senior Software Engineer” gets payed the most </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:latin typeface="Times New Roman"/>
+              <a:ea typeface="Times New Roman"/>
+              <a:cs typeface="Times New Roman"/>
+              <a:sym typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>(on average)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:latin typeface="Times New Roman"/>
+              <a:ea typeface="Times New Roman"/>
+              <a:cs typeface="Times New Roman"/>
+              <a:sym typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t> and Technical Support Specialists get payes the least </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:latin typeface="Times New Roman"/>
+              <a:ea typeface="Times New Roman"/>
+              <a:cs typeface="Times New Roman"/>
+              <a:sym typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>(on average)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:latin typeface="Times New Roman"/>
+              <a:ea typeface="Times New Roman"/>
+              <a:cs typeface="Times New Roman"/>
+              <a:sym typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>. </a:t>
+          </a:r>
+          <a:endParaRPr sz="1400">
+            <a:latin typeface="Times New Roman"/>
+            <a:ea typeface="Times New Roman"/>
+            <a:cs typeface="Times New Roman"/>
+            <a:sym typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>

--- a/ExcelLab.xlsx
+++ b/ExcelLab.xlsx
@@ -1,17 +1,50 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23322"/>
   <workbookPr/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{06872917-E144-401C-998F-B515B1924EB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191028" calcCompleted="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="22">
+  <si>
+    <t>Average salaries of the IT jobs that are in most demand in Canada</t>
+  </si>
+  <si>
+    <t>Prepared by</t>
+  </si>
+  <si>
+    <t>Chelsea Nadarajah-Chinniah</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>29/09/2020</t>
+  </si>
+  <si>
+    <t>Lowest Salaries of jobs in the IT field</t>
+  </si>
   <si>
     <t>Jobs</t>
   </si>
@@ -41,29 +74,91 @@
   </si>
   <si>
     <t>Technical Support Specialist</t>
+  </si>
+  <si>
+    <t>Highest Salaries of jobs in the IT field</t>
+  </si>
+  <si>
+    <t>Conclusions:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The data represented in this chart refers to the average salaries of the jobs that are </t>
+  </si>
+  <si>
+    <t>the highest in demand in the IT field in Canada. Out of these jobs, “Senior Software Engineers”</t>
+  </si>
+  <si>
+    <t>get payed the most (on average) and "Technical Support Specialists" get payed the least (on average). </t>
+  </si>
+  <si>
+    <t>Average Salaries of the jobs in the IT field</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FFFFFF00"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="13.95"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="5">
@@ -71,7 +166,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -92,159 +187,599 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
-    <border/>
+  <borders count="10">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="18">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF3F3F3F"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC000"/>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF3F3F3F"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00B0F0"/>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF3F3F3F"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC000"/>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF3F3F3F"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00B0F0"/>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF3F3F3F"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC000"/>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF3F3F3F"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00B0F0"/>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
         <c:rich>
-          <a:bodyPr/>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr lvl="0">
-              <a:defRPr b="0">
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:srgbClr val="000000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="Arial"/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Arial"/>
-              </a:rPr>
-              <a:t>Average salaries of the jobs that are in most demand in Canada</a:t>
+              <a:rPr lang="en-US"/>
+              <a:t>Average Salaries (in thousands)</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
       <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$4</c:f>
+              <c:f>Sheet1!$C$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Salaries (in thousands)</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent1"/>
             </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$5:$B$12</c:f>
+              <c:f>Sheet1!$B$35:$B$42</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Developer/Programmer</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>IT project manager</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Quality assurance Analyst</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Data Analyst</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>IT business analyst</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Senior Software Engineer</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Network Administrator</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Technical Support Specialist</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$5:$C$12</c:f>
-              <c:numCache/>
+              <c:f>Sheet1!$C$35:$C$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>68.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>81.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>58.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>56.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B5C0-4CED-BA19-6602FC0E45EE}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
-        <c:axId val="1467516865"/>
-        <c:axId val="1700078498"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="125050759"/>
+        <c:axId val="125044103"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1467516865"/>
+        <c:axId val="125050759"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr lvl="0">
-                  <a:defRPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t/>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:spPr/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
         <c:txPr>
-          <a:bodyPr/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr lvl="0">
-              <a:defRPr b="0">
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:srgbClr val="000000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="Arial"/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1700078498"/>
+        <c:crossAx val="125044103"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1700078498"/>
+        <c:axId val="125044103"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -252,112 +787,699 @@
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:ln>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:srgbClr val="B7B7B7"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
               </a:solidFill>
+              <a:round/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="CCCCCC">
-                  <a:alpha val="0"/>
-                </a:srgbClr>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:minorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr lvl="0">
-                  <a:defRPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t/>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:ln/>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr lvl="0">
-              <a:defRPr b="0">
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:srgbClr val="000000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="Arial"/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1467516865"/>
+        <c:crossAx val="125050759"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
       <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
       <c:txPr>
-        <a:bodyPr/>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0">
-            <a:defRPr b="0">
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:srgbClr val="000000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="Arial"/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
-  <xdr:oneCellAnchor>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="5715000" cy="3533775"/>
-    <xdr:graphicFrame>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1" name="Chart 1" title="Chart"/>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D20713E0-478E-48DF-AE60-3672A3951DF4}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -366,116 +1488,50 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>923925</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="3133725" cy="1828800"/>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Shape 3"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="480325" y="921450"/>
-          <a:ext cx="3117300" cy="1813500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="4A86E8"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr anchorCtr="0" anchor="t" bIns="91425" lIns="91425" spcFirstLastPara="1" rIns="91425" wrap="square" tIns="91425">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buNone/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400">
-              <a:latin typeface="Times New Roman"/>
-              <a:ea typeface="Times New Roman"/>
-              <a:cs typeface="Times New Roman"/>
-              <a:sym typeface="Times New Roman"/>
-            </a:rPr>
-            <a:t>The data represented in this chart refers to the average salaries of the jobs that are the highest in demand in the IT field in Canada. Out of these jobs, “Senior Software Engineer” gets payed the most </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400">
-              <a:latin typeface="Times New Roman"/>
-              <a:ea typeface="Times New Roman"/>
-              <a:cs typeface="Times New Roman"/>
-              <a:sym typeface="Times New Roman"/>
-            </a:rPr>
-            <a:t>(on average)</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400">
-              <a:latin typeface="Times New Roman"/>
-              <a:ea typeface="Times New Roman"/>
-              <a:cs typeface="Times New Roman"/>
-              <a:sym typeface="Times New Roman"/>
-            </a:rPr>
-            <a:t> and Technical Support Specialists get payes the least </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400">
-              <a:latin typeface="Times New Roman"/>
-              <a:ea typeface="Times New Roman"/>
-              <a:cs typeface="Times New Roman"/>
-              <a:sym typeface="Times New Roman"/>
-            </a:rPr>
-            <a:t>(on average)</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400">
-              <a:latin typeface="Times New Roman"/>
-              <a:ea typeface="Times New Roman"/>
-              <a:cs typeface="Times New Roman"/>
-              <a:sym typeface="Times New Roman"/>
-            </a:rPr>
-            <a:t>. </a:t>
-          </a:r>
-          <a:endParaRPr sz="1400">
-            <a:latin typeface="Times New Roman"/>
-            <a:ea typeface="Times New Roman"/>
-            <a:cs typeface="Times New Roman"/>
-            <a:sym typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{95FE91A4-CE03-46CB-8FF4-1BFDCC89CDD2}" name="Table35" displayName="Table35" ref="B7:C15" totalsRowShown="0">
+  <autoFilter ref="B7:C15" xr:uid="{67E8D257-1651-47AD-88DA-7786005BFB59}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{6ABF1E36-5779-45F3-8FC4-FAA5C631CA07}" name="Jobs" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{85B31BAA-7D8F-4DD8-AFBD-BD1026B4505E}" name="Salaries (in thousands)" dataDxfId="4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{FC7E478E-DEFB-47F2-B0E1-8AE7CAE0A353}" name="Table356" displayName="Table356" ref="B20:C28" totalsRowShown="0">
+  <autoFilter ref="B20:C28" xr:uid="{EBB101C9-D1BB-446F-99BD-14EBF87DB027}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{5A25E949-3C2F-476F-B688-2052FC4CC5D1}" name="Jobs" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{185AF5FB-2828-40B5-A1A2-EBFFEAA58D4B}" name="Salaries (in thousands)" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{EB2B93F9-CA81-49E2-8C59-FA8D248FD867}" name="Table37" displayName="Table37" ref="B34:C42" totalsRowShown="0">
+  <autoFilter ref="B34:C42" xr:uid="{F4B903D8-EDA1-43C4-8EFA-22FA583E194D}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{CE2D1848-1C03-4650-B2E5-8A194BF0F822}" name="Jobs" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{9D420C62-F1DF-483A-90F5-290116D9C34A}" name="Salaries (in thousands)" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -665,112 +1721,310 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <cols>
+    <col min="2" max="2" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="23.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="4">
-      <c r="B4" s="1" t="s">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="5"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="B5" s="2" t="s">
+      <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="3">
+      <c r="C2" s="7"/>
+      <c r="D2" s="8"/>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="11"/>
+    </row>
+    <row r="4" spans="1:4" ht="12.75"/>
+    <row r="5" spans="1:4" ht="12.75">
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="12.75"/>
+    <row r="7" spans="1:4" ht="15">
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15">
+      <c r="B8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15">
+      <c r="B9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15">
+      <c r="B10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15">
+      <c r="B11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15">
+      <c r="B12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="3">
+        <v>38.200000000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" customHeight="1">
+      <c r="B13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" customHeight="1">
+      <c r="B14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" customHeight="1">
+      <c r="B15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="3">
+        <v>89</v>
+      </c>
+      <c r="F21" s="17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="3">
+        <v>111</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B23" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="3">
+        <v>84</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="3">
+        <v>67</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B26" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B27" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B28" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B32" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B35" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="3">
+        <f>AVERAGE(C8, C21)</f>
         <v>68.5</v>
       </c>
     </row>
-    <row r="6">
-      <c r="B6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="3">
+    <row r="36" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="3">
+        <f>AVERAGE(C9,C22)</f>
         <v>81.5</v>
       </c>
     </row>
-    <row r="7">
-      <c r="B7" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="3">
+    <row r="37" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B37" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="3">
         <v>58.5</v>
       </c>
     </row>
-    <row r="8">
-      <c r="B8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="3">
-        <v>55.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="B9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="3">
+    <row r="38" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B38" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" s="3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B39" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" s="3">
         <v>56.1</v>
       </c>
     </row>
-    <row r="10">
-      <c r="B10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="3">
-        <v>104.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="B11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="3">
+    <row r="40" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B40" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40" s="3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B41" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" s="3">
         <v>60.5</v>
       </c>
     </row>
-    <row r="12">
-      <c r="B12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="3">
-        <v>50.0</v>
+    <row r="42" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B42" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42" s="3">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="D7:F7"/>
-  </mergeCells>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <drawing r:id="rId1"/>
+  <tableParts count="3">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+  </tableParts>
 </worksheet>
 </file>